--- a/MonteCarloResultsSimpleTest.xlsx
+++ b/MonteCarloResultsSimpleTest.xlsx
@@ -504,28 +504,28 @@
         <v>210</v>
       </c>
       <c r="F2">
-        <v>-1.989952712868612</v>
+        <v>2.048999274587194</v>
       </c>
       <c r="G2">
-        <v>1258</v>
+        <v>3840</v>
       </c>
       <c r="H2">
-        <v>0.9427756890856065</v>
+        <v>0.9385910739580402</v>
       </c>
       <c r="I2">
-        <v>-2.110738255033557</v>
+        <v>2.183058555997726</v>
       </c>
       <c r="J2">
-        <v>-443.2550335570469</v>
+        <v>458.4422967595225</v>
       </c>
       <c r="K2">
-        <v>-417.8900697024086</v>
+        <v>430.2898476633108</v>
       </c>
       <c r="L2">
-        <v>197.9828947079774</v>
+        <v>197.1041255311884</v>
       </c>
       <c r="M2">
-        <v>-1.064624701384708</v>
+        <v>1.096214611904149</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -545,28 +545,28 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>-2.398110242009901</v>
+        <v>2.379503116534941</v>
       </c>
       <c r="G3">
-        <v>1258</v>
+        <v>3840</v>
       </c>
       <c r="H3">
-        <v>1.136147618631082</v>
+        <v>1.089985932808584</v>
       </c>
       <c r="I3">
-        <v>-2.110738255033557</v>
+        <v>2.183058555997726</v>
       </c>
       <c r="J3">
-        <v>-443.2550335570469</v>
+        <v>458.4422967595225</v>
       </c>
       <c r="K3">
-        <v>-503.6031508220793</v>
+        <v>499.6956544723377</v>
       </c>
       <c r="L3">
-        <v>238.5909999125273</v>
+        <v>228.8970458898026</v>
       </c>
       <c r="M3">
-        <v>-1.282988979475297</v>
+        <v>1.273034167346194</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -586,28 +586,28 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>-2.709750704107494</v>
+        <v>2.826288588547893</v>
       </c>
       <c r="G4">
-        <v>1258</v>
+        <v>3840</v>
       </c>
       <c r="H4">
-        <v>1.283792861405458</v>
+        <v>1.29464625709785</v>
       </c>
       <c r="I4">
-        <v>-2.110738255033557</v>
+        <v>2.183058555997726</v>
       </c>
       <c r="J4">
-        <v>-443.2550335570469</v>
+        <v>458.4422967595225</v>
       </c>
       <c r="K4">
-        <v>-569.0476478625737</v>
+        <v>593.5206035950577</v>
       </c>
       <c r="L4">
-        <v>269.5965008951462</v>
+        <v>271.8757139905485</v>
       </c>
       <c r="M4">
-        <v>-1.449716626697509</v>
+        <v>1.512064394873123</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -627,28 +627,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-2.124935822033921</v>
+        <v>1.975862125990343</v>
       </c>
       <c r="G5">
-        <v>1258</v>
+        <v>3840</v>
       </c>
       <c r="H5">
-        <v>1.00672635129747</v>
+        <v>0.905088926983597</v>
       </c>
       <c r="I5">
-        <v>-2.110738255033557</v>
+        <v>2.183058555997726</v>
       </c>
       <c r="J5">
-        <v>-2.110738255033557</v>
+        <v>2.183058555997726</v>
       </c>
       <c r="K5">
-        <v>-2.124935822033921</v>
+        <v>1.975862125990343</v>
       </c>
       <c r="L5">
-        <v>1.00672635129747</v>
+        <v>0.905088926983597</v>
       </c>
       <c r="M5">
-        <v>-1.202713675271199</v>
+        <v>1.118337963310534</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -665,25 +665,25 @@
         <v>631</v>
       </c>
       <c r="J6">
-        <v>-2.110738255033557</v>
+        <v>2.183058555997726</v>
       </c>
       <c r="K6">
-        <v>-2.365555949618218</v>
+        <v>2.417562548108869</v>
       </c>
       <c r="L6">
-        <v>1.120724440359665</v>
+        <v>1.107419927636328</v>
       </c>
       <c r="M6">
-        <v>-5.000043982828713</v>
+        <v>4.999651137434</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>1759</v>
       </c>
       <c r="O6">
         <v>0.02</v>
       </c>
       <c r="P6">
-        <v>0.001406373725812933</v>
+        <v>0.02414245121747954</v>
       </c>
     </row>
   </sheetData>

--- a/MonteCarloResultsSimpleTest.xlsx
+++ b/MonteCarloResultsSimpleTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Customer type</t>
   </si>
@@ -61,6 +61,12 @@
     <t>calculated beta</t>
   </si>
   <si>
+    <t>EENS 95% CI</t>
+  </si>
+  <si>
+    <t>EENS 99% CI</t>
+  </si>
+  <si>
     <t>LP1</t>
   </si>
   <si>
@@ -77,6 +83,15 @@
   </si>
   <si>
     <t>residential</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>(6.921994197234212, 7.484947776640266)</t>
+  </si>
+  <si>
+    <t>(6.833530063327546, 7.573411910546931)</t>
   </si>
 </sst>
 </file>
@@ -434,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,13 +501,19 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0.535</v>
@@ -504,36 +525,36 @@
         <v>210</v>
       </c>
       <c r="F2">
-        <v>2.048999274587194</v>
+        <v>2.097658007960921</v>
       </c>
       <c r="G2">
-        <v>3840</v>
+        <v>6608</v>
       </c>
       <c r="H2">
-        <v>0.9385910739580402</v>
+        <v>0.9701033402434285</v>
       </c>
       <c r="I2">
-        <v>2.183058555997726</v>
+        <v>2.162303664921466</v>
       </c>
       <c r="J2">
-        <v>458.4422967595225</v>
+        <v>454.0837696335079</v>
       </c>
       <c r="K2">
-        <v>430.2898476633108</v>
+        <v>440.5081816717935</v>
       </c>
       <c r="L2">
-        <v>197.1041255311884</v>
+        <v>203.72170145112</v>
       </c>
       <c r="M2">
-        <v>1.096214611904149</v>
+        <v>1.122247034259093</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0.535</v>
@@ -545,36 +566,36 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>2.379503116534941</v>
+        <v>3.046956170178304</v>
       </c>
       <c r="G3">
-        <v>3840</v>
+        <v>6608</v>
       </c>
       <c r="H3">
-        <v>1.089985932808584</v>
+        <v>1.409125008484397</v>
       </c>
       <c r="I3">
-        <v>2.183058555997726</v>
+        <v>2.162303664921466</v>
       </c>
       <c r="J3">
-        <v>458.4422967595225</v>
+        <v>454.0837696335079</v>
       </c>
       <c r="K3">
-        <v>499.6956544723377</v>
+        <v>639.8607957374438</v>
       </c>
       <c r="L3">
-        <v>228.8970458898026</v>
+        <v>295.9162517817234</v>
       </c>
       <c r="M3">
-        <v>1.273034167346194</v>
+        <v>1.630121551045393</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0.535</v>
@@ -586,36 +607,36 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>2.826288588547893</v>
+        <v>3.853935416931458</v>
       </c>
       <c r="G4">
-        <v>3840</v>
+        <v>6608</v>
       </c>
       <c r="H4">
-        <v>1.29464625709785</v>
+        <v>1.782328485796389</v>
       </c>
       <c r="I4">
-        <v>2.183058555997726</v>
+        <v>2.162303664921466</v>
       </c>
       <c r="J4">
-        <v>458.4422967595225</v>
+        <v>454.0837696335079</v>
       </c>
       <c r="K4">
-        <v>593.5206035950577</v>
+        <v>809.3264375556062</v>
       </c>
       <c r="L4">
-        <v>271.8757139905485</v>
+        <v>374.2889820172416</v>
       </c>
       <c r="M4">
-        <v>1.512064394873123</v>
+        <v>2.06185544805833</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0.5659999999999999</v>
@@ -627,33 +648,33 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.975862125990343</v>
+        <v>4.221194677684629</v>
       </c>
       <c r="G5">
-        <v>3840</v>
+        <v>6608</v>
       </c>
       <c r="H5">
-        <v>0.905088926983597</v>
+        <v>1.952174778299671</v>
       </c>
       <c r="I5">
-        <v>2.183058555997726</v>
+        <v>2.162303664921466</v>
       </c>
       <c r="J5">
-        <v>2.183058555997726</v>
+        <v>2.162303664921466</v>
       </c>
       <c r="K5">
-        <v>1.975862125990343</v>
+        <v>4.221194677684629</v>
       </c>
       <c r="L5">
-        <v>0.905088926983597</v>
+        <v>1.952174778299671</v>
       </c>
       <c r="M5">
-        <v>1.118337963310534</v>
+        <v>2.3891961875695</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2.171</v>
@@ -665,25 +686,31 @@
         <v>631</v>
       </c>
       <c r="J6">
-        <v>2.183058555997726</v>
+        <v>2.162303664921466</v>
       </c>
       <c r="K6">
-        <v>2.417562548108869</v>
+        <v>3.001452630178333</v>
       </c>
       <c r="L6">
-        <v>1.107419927636328</v>
+        <v>1.388080998460198</v>
       </c>
       <c r="M6">
-        <v>4.999651137434</v>
+        <v>7.203420220932315</v>
       </c>
       <c r="N6">
-        <v>1759</v>
+        <v>3056</v>
       </c>
       <c r="O6">
         <v>0.02</v>
       </c>
       <c r="P6">
-        <v>0.02414245121747954</v>
+        <v>0.01993630671266165</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
